--- a/Tests/Validation/Wheat/data/FAR TAS W16-06.xlsx
+++ b/Tests/Validation/Wheat/data/FAR TAS W16-06.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Tests/Validation/Wheat/data/FAR TAS W16-06.xlsx
+++ b/Tests/Validation/Wheat/data/FAR TAS W16-06.xlsx
@@ -493,22 +493,22 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height</t>
+          <t>Wheat.Leaf.Height</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height.se</t>
+          <t>Wheat.Leaf.Height.se</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn</t>
+          <t>Wheat.Leaf.StemPopulation</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn.se</t>
+          <t>Wheat.Leaf.StemPopulation.se</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR TAS W16-06.xlsx
+++ b/Tests/Validation/Wheat/data/FAR TAS W16-06.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>NDVI.Value</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -561,7 +562,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>42550</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -596,7 +597,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -635,7 +636,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -670,7 +671,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>42640</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -705,7 +706,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>42650</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -744,7 +745,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>42662</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -779,7 +780,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>42676</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -818,7 +819,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>42689</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -853,7 +854,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>42696</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -892,7 +893,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -927,7 +928,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>42716</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -962,7 +963,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -1017,7 +1018,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>42550</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1052,7 +1053,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1091,7 +1092,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1126,7 +1127,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>42640</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1161,7 +1162,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>42650</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1200,7 +1201,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>42662</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1235,7 +1236,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>42676</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1274,7 +1275,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>42689</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1309,7 +1310,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>42696</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1348,7 +1349,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1383,7 +1384,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>42716</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1418,7 +1419,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1473,7 +1474,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>42550</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1508,7 +1509,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1547,7 +1548,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1582,7 +1583,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>42640</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1617,7 +1618,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>42650</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1656,7 +1657,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>42662</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1691,7 +1692,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>42676</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1730,7 +1731,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>42689</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1765,7 +1766,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>42696</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1804,7 +1805,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1839,7 +1840,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>42716</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1874,7 +1875,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -1929,7 +1930,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>42550</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1964,7 +1965,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2003,7 +2004,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2038,7 +2039,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>42640</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2073,7 +2074,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>42650</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2112,7 +2113,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>42662</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2147,7 +2148,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>42676</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2186,7 +2187,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>42689</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2221,7 +2222,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>42696</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2260,7 +2261,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2295,7 +2296,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>42716</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2330,7 +2331,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2385,7 +2386,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>42550</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2420,7 +2421,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2459,7 +2460,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2494,7 +2495,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>42640</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2529,7 +2530,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>42650</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2568,7 +2569,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>42662</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2603,7 +2604,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>42676</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2642,7 +2643,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>42689</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2677,7 +2678,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>42696</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2716,7 +2717,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2751,7 +2752,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>42716</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2786,7 +2787,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -2841,7 +2842,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>42550</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2876,7 +2877,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2915,7 +2916,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2950,7 +2951,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>42640</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2985,7 +2986,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>42650</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3024,7 +3025,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>42662</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3059,7 +3060,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>42676</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3098,7 +3099,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>42689</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3133,7 +3134,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>42696</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3172,7 +3173,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3207,7 +3208,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>42716</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3242,7 +3243,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -3297,7 +3298,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>42550</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3332,7 +3333,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3371,7 +3372,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3406,7 +3407,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>42640</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3441,7 +3442,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>42650</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3480,7 +3481,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>42662</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3515,7 +3516,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>42676</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3554,7 +3555,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>42689</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3589,7 +3590,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>42696</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3628,7 +3629,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3663,7 +3664,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>42716</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3698,7 +3699,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C85" t="inlineStr">
@@ -3753,7 +3754,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>42550</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3788,7 +3789,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3827,7 +3828,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3862,7 +3863,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>42640</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3897,7 +3898,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>42650</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3936,7 +3937,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>42662</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3971,7 +3972,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>42676</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4010,7 +4011,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>42689</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4045,7 +4046,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>42696</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4084,7 +4085,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4119,7 +4120,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>42716</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4154,7 +4155,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C97" t="inlineStr">
@@ -4209,7 +4210,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>42508</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4248,7 +4249,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>42550</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4283,7 +4284,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4326,7 +4327,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4361,7 +4362,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>42640</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4396,7 +4397,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>42650</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4435,7 +4436,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>42662</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4470,7 +4471,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>42676</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4509,7 +4510,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>42689</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4544,7 +4545,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>42696</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4583,7 +4584,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4618,7 +4619,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>42716</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4653,7 +4654,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -4708,7 +4709,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>42508</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4747,7 +4748,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>42550</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4782,7 +4783,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4825,7 +4826,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4860,7 +4861,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>42640</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4895,7 +4896,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>42650</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4934,7 +4935,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>42662</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4969,7 +4970,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>42676</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -5008,7 +5009,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>42689</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5043,7 +5044,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>42696</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5082,7 +5083,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5117,7 +5118,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>42716</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5152,7 +5153,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C123" t="inlineStr">
@@ -5207,7 +5208,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>42508</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5246,7 +5247,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>42550</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5281,7 +5282,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5324,7 +5325,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5359,7 +5360,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>42640</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5394,7 +5395,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>42650</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5433,7 +5434,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>42662</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5468,7 +5469,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>42676</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5507,7 +5508,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>42689</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5542,7 +5543,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>42696</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5581,7 +5582,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5616,7 +5617,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>42716</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5651,7 +5652,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C136" t="inlineStr">
@@ -5706,7 +5707,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>42508</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5745,7 +5746,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>42550</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5780,7 +5781,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5823,7 +5824,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5858,7 +5859,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>42640</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5893,7 +5894,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>42650</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5932,7 +5933,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>42662</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5967,7 +5968,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>42676</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -6006,7 +6007,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>42689</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -6041,7 +6042,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>42696</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6080,7 +6081,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6115,7 +6116,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>42716</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6150,7 +6151,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C149" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR TAS W16-06.xlsx
+++ b/Tests/Validation/Wheat/data/FAR TAS W16-06.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,14 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +456,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVI.Value</t>
+          <t>NDVIModel.Script.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -562,7 +561,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>42550</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -597,7 +596,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -636,7 +635,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -671,7 +670,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>42640</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -706,7 +705,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>42650</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -745,7 +744,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>42662</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -780,7 +779,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>42676</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -819,7 +818,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <v>42689</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -854,7 +853,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>42696</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -893,7 +892,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -928,7 +927,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>42716</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -963,7 +962,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>42752</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -1018,7 +1017,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>42550</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1053,7 +1052,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1092,7 +1091,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1127,7 +1126,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>42640</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1162,7 +1161,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>42650</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1201,7 +1200,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>42662</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1236,7 +1235,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>42676</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1275,7 +1274,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>42689</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1310,7 +1309,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>42696</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1349,7 +1348,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1384,7 +1383,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>42716</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1419,7 +1418,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>42752</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1474,7 +1473,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="3" t="n">
         <v>42550</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1509,7 +1508,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1548,7 +1547,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1583,7 +1582,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>42640</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1618,7 +1617,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>42650</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1657,7 +1656,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="3" t="n">
         <v>42662</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1692,7 +1691,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="3" t="n">
         <v>42676</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1731,7 +1730,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="3" t="n">
         <v>42689</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1766,7 +1765,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>42696</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1805,7 +1804,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1840,7 +1839,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="3" t="n">
         <v>42716</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1875,7 +1874,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="3" t="n">
         <v>42752</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -1930,7 +1929,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="3" t="n">
         <v>42550</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1965,7 +1964,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2004,7 +2003,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2039,7 +2038,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="3" t="n">
         <v>42640</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2074,7 +2073,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="3" t="n">
         <v>42650</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2113,7 +2112,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="3" t="n">
         <v>42662</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2148,7 +2147,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="3" t="n">
         <v>42676</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2187,7 +2186,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="3" t="n">
         <v>42689</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2222,7 +2221,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="3" t="n">
         <v>42696</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2261,7 +2260,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2296,7 +2295,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="3" t="n">
         <v>42716</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2331,7 +2330,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>42752</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2386,7 +2385,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="3" t="n">
         <v>42550</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2421,7 +2420,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2460,7 +2459,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2495,7 +2494,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="3" t="n">
         <v>42640</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2530,7 +2529,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="3" t="n">
         <v>42650</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2569,7 +2568,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="3" t="n">
         <v>42662</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2604,7 +2603,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="3" t="n">
         <v>42676</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2643,7 +2642,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="3" t="n">
         <v>42689</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2678,7 +2677,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="3" t="n">
         <v>42696</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2717,7 +2716,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2752,7 +2751,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="3" t="n">
         <v>42716</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2787,7 +2786,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="3" t="n">
         <v>42752</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -2842,7 +2841,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="3" t="n">
         <v>42550</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2877,7 +2876,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2916,7 +2915,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2951,7 +2950,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>42640</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2986,7 +2985,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="3" t="n">
         <v>42650</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3025,7 +3024,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="3" t="n">
         <v>42662</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3060,7 +3059,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="3" t="n">
         <v>42676</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3099,7 +3098,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="3" t="n">
         <v>42689</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3134,7 +3133,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="3" t="n">
         <v>42696</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3173,7 +3172,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3208,7 +3207,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="3" t="n">
         <v>42716</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3243,7 +3242,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="3" t="n">
         <v>42752</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -3298,7 +3297,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="3" t="n">
         <v>42550</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3333,7 +3332,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3372,7 +3371,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3407,7 +3406,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="3" t="n">
         <v>42640</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3442,7 +3441,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="3" t="n">
         <v>42650</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3481,7 +3480,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B79" s="4" t="n">
+      <c r="B79" s="3" t="n">
         <v>42662</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3516,7 +3515,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n">
+      <c r="B80" s="3" t="n">
         <v>42676</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3555,7 +3554,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="3" t="n">
         <v>42689</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3590,7 +3589,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="3" t="n">
         <v>42696</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3629,7 +3628,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3664,7 +3663,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="3" t="n">
         <v>42716</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3699,7 +3698,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="3" t="n">
         <v>42752</v>
       </c>
       <c r="C85" t="inlineStr">
@@ -3754,7 +3753,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="3" t="n">
         <v>42550</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3789,7 +3788,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3828,7 +3827,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3863,7 +3862,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="3" t="n">
         <v>42640</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3898,7 +3897,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="3" t="n">
         <v>42650</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3937,7 +3936,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B91" s="4" t="n">
+      <c r="B91" s="3" t="n">
         <v>42662</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3972,7 +3971,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="3" t="n">
         <v>42676</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4011,7 +4010,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B93" s="4" t="n">
+      <c r="B93" s="3" t="n">
         <v>42689</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4046,7 +4045,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="3" t="n">
         <v>42696</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4085,7 +4084,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4120,7 +4119,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="3" t="n">
         <v>42716</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4155,7 +4154,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="3" t="n">
         <v>42752</v>
       </c>
       <c r="C97" t="inlineStr">
@@ -4210,7 +4209,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="3" t="n">
         <v>42508</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4249,7 +4248,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="3" t="n">
         <v>42550</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4284,7 +4283,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B100" s="4" t="n">
+      <c r="B100" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4327,7 +4326,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B101" s="4" t="n">
+      <c r="B101" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4362,7 +4361,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B102" s="4" t="n">
+      <c r="B102" s="3" t="n">
         <v>42640</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4397,7 +4396,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B103" s="4" t="n">
+      <c r="B103" s="3" t="n">
         <v>42650</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4436,7 +4435,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B104" s="4" t="n">
+      <c r="B104" s="3" t="n">
         <v>42662</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4471,7 +4470,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B105" s="4" t="n">
+      <c r="B105" s="3" t="n">
         <v>42676</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4510,7 +4509,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B106" s="4" t="n">
+      <c r="B106" s="3" t="n">
         <v>42689</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4545,7 +4544,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B107" s="4" t="n">
+      <c r="B107" s="3" t="n">
         <v>42696</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4584,7 +4583,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B108" s="4" t="n">
+      <c r="B108" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4619,7 +4618,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B109" s="4" t="n">
+      <c r="B109" s="3" t="n">
         <v>42716</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4654,7 +4653,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B110" s="4" t="n">
+      <c r="B110" s="3" t="n">
         <v>42752</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -4709,7 +4708,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B111" s="4" t="n">
+      <c r="B111" s="3" t="n">
         <v>42508</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4748,7 +4747,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B112" s="3" t="n">
         <v>42550</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4783,7 +4782,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B113" s="4" t="n">
+      <c r="B113" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4826,7 +4825,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B114" s="4" t="n">
+      <c r="B114" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4861,7 +4860,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B115" s="4" t="n">
+      <c r="B115" s="3" t="n">
         <v>42640</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4896,7 +4895,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B116" s="4" t="n">
+      <c r="B116" s="3" t="n">
         <v>42650</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4935,7 +4934,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B117" s="4" t="n">
+      <c r="B117" s="3" t="n">
         <v>42662</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4970,7 +4969,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B118" s="4" t="n">
+      <c r="B118" s="3" t="n">
         <v>42676</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -5009,7 +5008,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B119" s="4" t="n">
+      <c r="B119" s="3" t="n">
         <v>42689</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5044,7 +5043,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B120" s="4" t="n">
+      <c r="B120" s="3" t="n">
         <v>42696</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5083,7 +5082,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B121" s="4" t="n">
+      <c r="B121" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5118,7 +5117,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B122" s="4" t="n">
+      <c r="B122" s="3" t="n">
         <v>42716</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5153,7 +5152,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B123" s="4" t="n">
+      <c r="B123" s="3" t="n">
         <v>42752</v>
       </c>
       <c r="C123" t="inlineStr">
@@ -5208,7 +5207,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B124" s="4" t="n">
+      <c r="B124" s="3" t="n">
         <v>42508</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5247,7 +5246,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B125" s="4" t="n">
+      <c r="B125" s="3" t="n">
         <v>42550</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5282,7 +5281,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B126" s="4" t="n">
+      <c r="B126" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5325,7 +5324,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B127" s="4" t="n">
+      <c r="B127" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5360,7 +5359,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B128" s="4" t="n">
+      <c r="B128" s="3" t="n">
         <v>42640</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5395,7 +5394,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B129" s="4" t="n">
+      <c r="B129" s="3" t="n">
         <v>42650</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5434,7 +5433,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B130" s="4" t="n">
+      <c r="B130" s="3" t="n">
         <v>42662</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5469,7 +5468,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B131" s="4" t="n">
+      <c r="B131" s="3" t="n">
         <v>42676</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5508,7 +5507,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B132" s="4" t="n">
+      <c r="B132" s="3" t="n">
         <v>42689</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5543,7 +5542,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B133" s="4" t="n">
+      <c r="B133" s="3" t="n">
         <v>42696</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5582,7 +5581,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B134" s="4" t="n">
+      <c r="B134" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5617,7 +5616,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B135" s="4" t="n">
+      <c r="B135" s="3" t="n">
         <v>42716</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5652,7 +5651,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B136" s="4" t="n">
+      <c r="B136" s="3" t="n">
         <v>42752</v>
       </c>
       <c r="C136" t="inlineStr">
@@ -5707,7 +5706,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B137" s="4" t="n">
+      <c r="B137" s="3" t="n">
         <v>42508</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5746,7 +5745,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B138" s="4" t="n">
+      <c r="B138" s="3" t="n">
         <v>42550</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5781,7 +5780,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B139" s="4" t="n">
+      <c r="B139" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5824,7 +5823,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B140" s="4" t="n">
+      <c r="B140" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5859,7 +5858,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B141" s="4" t="n">
+      <c r="B141" s="3" t="n">
         <v>42640</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5894,7 +5893,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B142" s="4" t="n">
+      <c r="B142" s="3" t="n">
         <v>42650</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5933,7 +5932,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B143" s="4" t="n">
+      <c r="B143" s="3" t="n">
         <v>42662</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5968,7 +5967,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B144" s="4" t="n">
+      <c r="B144" s="3" t="n">
         <v>42676</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -6007,7 +6006,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B145" s="4" t="n">
+      <c r="B145" s="3" t="n">
         <v>42689</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -6042,7 +6041,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B146" s="4" t="n">
+      <c r="B146" s="3" t="n">
         <v>42696</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6081,7 +6080,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B147" s="4" t="n">
+      <c r="B147" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6116,7 +6115,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B148" s="4" t="n">
+      <c r="B148" s="3" t="n">
         <v>42716</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6151,7 +6150,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B149" s="4" t="n">
+      <c r="B149" s="3" t="n">
         <v>42752</v>
       </c>
       <c r="C149" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR TAS W16-06.xlsx
+++ b/Tests/Validation/Wheat/data/FAR TAS W16-06.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>Spectral.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -561,7 +562,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>42550</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -596,7 +597,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -635,7 +636,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -670,7 +671,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>42640</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -705,7 +706,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>42650</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -744,7 +745,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>42662</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -779,7 +780,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>42676</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -818,7 +819,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>42689</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -853,7 +854,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>42696</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -892,7 +893,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -927,7 +928,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>42716</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -962,7 +963,7 @@
           <t>FAR TAS W16-06PGRSingleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -1017,7 +1018,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>42550</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1052,7 +1053,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1091,7 +1092,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1126,7 +1127,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>42640</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1161,7 +1162,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>42650</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1200,7 +1201,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>42662</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1235,7 +1236,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>42676</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1274,7 +1275,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>42689</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1309,7 +1310,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>42696</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1348,7 +1349,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1383,7 +1384,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>42716</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1418,7 +1419,7 @@
           <t>FAR TAS W16-06PGRDoubleMidSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1473,7 +1474,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>42550</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1508,7 +1509,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1547,7 +1548,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1582,7 +1583,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>42640</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1617,7 +1618,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>42650</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1656,7 +1657,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>42662</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1691,7 +1692,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>42676</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1730,7 +1731,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>42689</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1765,7 +1766,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>42696</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1804,7 +1805,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1839,7 +1840,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>42716</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1874,7 +1875,7 @@
           <t>FAR TAS W16-06PGREarly1Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -1929,7 +1930,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>42550</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1964,7 +1965,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2003,7 +2004,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2038,7 +2039,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>42640</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2073,7 +2074,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>42650</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2112,7 +2113,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>42662</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2147,7 +2148,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>42676</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2186,7 +2187,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>42689</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2221,7 +2222,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>42696</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2260,7 +2261,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2295,7 +2296,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>42716</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2330,7 +2331,7 @@
           <t>FAR TAS W16-06PGREarly2Seeds200CvManning</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2385,7 +2386,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>42550</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2420,7 +2421,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2459,7 +2460,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2494,7 +2495,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>42640</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2529,7 +2530,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>42650</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2568,7 +2569,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>42662</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2603,7 +2604,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>42676</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2642,7 +2643,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>42689</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2677,7 +2678,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>42696</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2716,7 +2717,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2751,7 +2752,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>42716</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2786,7 +2787,7 @@
           <t>FAR TAS W16-06PGRTripleEarlySeeds200CvManning</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -2841,7 +2842,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>42550</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2876,7 +2877,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2915,7 +2916,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2950,7 +2951,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>42640</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2985,7 +2986,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>42650</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3024,7 +3025,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>42662</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3059,7 +3060,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>42676</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3098,7 +3099,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>42689</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3133,7 +3134,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>42696</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3172,7 +3173,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3207,7 +3208,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>42716</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3242,7 +3243,7 @@
           <t>FAR TAS W16-06PGRDoubleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -3297,7 +3298,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>42550</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3332,7 +3333,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3371,7 +3372,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3406,7 +3407,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>42640</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3441,7 +3442,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>42650</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3480,7 +3481,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>42662</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3515,7 +3516,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>42676</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3554,7 +3555,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>42689</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3589,7 +3590,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>42696</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3628,7 +3629,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3663,7 +3664,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>42716</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3698,7 +3699,7 @@
           <t>FAR TAS W16-06PGRTripleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C85" t="inlineStr">
@@ -3753,7 +3754,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>42550</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3788,7 +3789,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3827,7 +3828,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3862,7 +3863,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>42640</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3897,7 +3898,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>42650</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3936,7 +3937,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>42662</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3971,7 +3972,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>42676</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4010,7 +4011,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>42689</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4045,7 +4046,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>42696</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4084,7 +4085,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4119,7 +4120,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>42716</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4154,7 +4155,7 @@
           <t>FAR TAS W16-06PGRSingleLateSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C97" t="inlineStr">
@@ -4209,7 +4210,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>42508</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4248,7 +4249,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>42550</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4283,7 +4284,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4326,7 +4327,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4361,7 +4362,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>42640</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4396,7 +4397,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>42650</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4435,7 +4436,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>42662</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4470,7 +4471,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>42676</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4509,7 +4510,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>42689</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4544,7 +4545,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>42696</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4583,7 +4584,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4618,7 +4619,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>42716</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4653,7 +4654,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds50CvManning</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -4708,7 +4709,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>42508</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4747,7 +4748,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>42550</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4782,7 +4783,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4825,7 +4826,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4860,7 +4861,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>42640</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4895,7 +4896,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>42650</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4934,7 +4935,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>42662</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4969,7 +4970,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>42676</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -5008,7 +5009,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>42689</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5043,7 +5044,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>42696</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5082,7 +5083,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5117,7 +5118,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>42716</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5152,7 +5153,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds100CvManning</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C123" t="inlineStr">
@@ -5207,7 +5208,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>42508</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5246,7 +5247,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>42550</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5281,7 +5282,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5324,7 +5325,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5359,7 +5360,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>42640</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5394,7 +5395,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>42650</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5433,7 +5434,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>42662</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5468,7 +5469,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>42676</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5507,7 +5508,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>42689</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5542,7 +5543,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>42696</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5581,7 +5582,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5616,7 +5617,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>42716</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5651,7 +5652,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds150CvManning</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C136" t="inlineStr">
@@ -5706,7 +5707,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>42508</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5745,7 +5746,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>42550</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5780,7 +5781,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5823,7 +5824,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5858,7 +5859,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>42640</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5893,7 +5894,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>42650</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5932,7 +5933,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>42662</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5967,7 +5968,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>42676</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -6006,7 +6007,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>42689</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -6041,7 +6042,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>42696</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6080,7 +6081,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6115,7 +6116,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>42716</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6150,7 +6151,7 @@
           <t>FAR TAS W16-06PGRNoneSeeds200CvManning</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C149" t="inlineStr">
